--- a/reports/studentTcPDF.xlsx
+++ b/reports/studentTcPDF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>SNo</t>
   </si>
@@ -38,19 +38,31 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>S1000</t>
-  </si>
-  <si>
-    <t>Sanjay Kumar Chaurasia</t>
+    <t>AARADHYA  ARORA</t>
   </si>
   <si>
     <t>NR A</t>
   </si>
   <si>
-    <t>27/09/2016</t>
-  </si>
-  <si>
-    <t>29/09/2016</t>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>24/11/2016</t>
+  </si>
+  <si>
+    <t>R82</t>
+  </si>
+  <si>
+    <t>GURJEET  KAUR</t>
+  </si>
+  <si>
+    <t>24/06/2016</t>
+  </si>
+  <si>
+    <t>ISHAN  BORANA</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
   </si>
   <si>
     <t>Total Amount</t>
@@ -392,7 +404,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +439,77 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>12111</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
     <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
